--- a/data/PlayerInitConfig.xlsx
+++ b/data/PlayerInitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0935B38-846D-4072-9274-10547F5A54EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165F6EAF-AB56-4C98-AF73-27F22068B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2730" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="3840" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,16 +167,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>["card_001","card_001","card_001","card_002","card_002"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest1</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -559,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -588,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -613,8 +616,8 @@
       <c r="H4">
         <v>80</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/PlayerInitConfig.xlsx
+++ b/data/PlayerInitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165F6EAF-AB56-4C98-AF73-27F22068B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D35BFA-F707-4422-BF5A-6318F7D36A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="3840" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,9 +177,6 @@
   <si>
     <t>questId</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest1</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,8 +613,8 @@
       <c r="H4">
         <v>80</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
